--- a/Samples/DataSource/Hero.xlsx
+++ b/Samples/DataSource/Hero.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -166,7 +166,7 @@
     <t>id_skill_1,id_skill_5</t>
   </si>
   <si>
-    <t>10001005|dep</t>
+    <t>10001005|n</t>
   </si>
   <si>
     <t>key_hero_name_5</t>
@@ -1124,12 +1124,12 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="14.8727272727273" customWidth="1"/>
     <col min="3" max="3" width="17.1272727272727" customWidth="1"/>
     <col min="4" max="4" width="22.6272727272727" customWidth="1"/>
